--- a/support/schedule/eec134-schedule.xlsx
+++ b/support/schedule/eec134-schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scratch\Git\UCD-EEC134\supporting documents\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scratch\Git\UCD-EEC134\support\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Due 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Lec/Lab</t>
   </si>
@@ -35,22 +32,154 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Due 2</t>
-  </si>
-  <si>
-    <t>Due 3</t>
-  </si>
-  <si>
     <t>Instructor/TA Actions</t>
   </si>
   <si>
     <t>Lec 1 (Mechanism)</t>
   </si>
   <si>
-    <t>Lab 1-F (Electronics)</t>
-  </si>
-  <si>
-    <t>Lab 1-M (Electronics)</t>
+    <t>Lab 1-1-F (Electronics)</t>
+  </si>
+  <si>
+    <t>Lab 1-1-M (Electronics)</t>
+  </si>
+  <si>
+    <t>Lab 1-2-F (Electronics)</t>
+  </si>
+  <si>
+    <t>Lab 1-2-M (Electronics)</t>
+  </si>
+  <si>
+    <t>Lab 1-3-F (Electronics)</t>
+  </si>
+  <si>
+    <t>Lab 1-3-M (Electronics)</t>
+  </si>
+  <si>
+    <t>Lec 4 (Amp)</t>
+  </si>
+  <si>
+    <t>Lec 3 (Amp)</t>
+  </si>
+  <si>
+    <t>Lec 2 (Intro &amp; Basics)</t>
+  </si>
+  <si>
+    <t>Lec 5 (Osc)</t>
+  </si>
+  <si>
+    <t>Lab 3-F (Osc)</t>
+  </si>
+  <si>
+    <t>Lab 3-M (Osc)</t>
+  </si>
+  <si>
+    <t>Lec 6 (Mixer)</t>
+  </si>
+  <si>
+    <t>Lab 4-M (Mixer)</t>
+  </si>
+  <si>
+    <t>Lab 4-F (Mixer)</t>
+  </si>
+  <si>
+    <t>Lec 7 (Passives)</t>
+  </si>
+  <si>
+    <t>Lab 5-F (Antenna)</t>
+  </si>
+  <si>
+    <t>Lab 6-M (Antenna)</t>
+  </si>
+  <si>
+    <t>Lec 8 (Antenna)</t>
+  </si>
+  <si>
+    <t>Lab 6-F (System)</t>
+  </si>
+  <si>
+    <t>Lab 6-M (System)</t>
+  </si>
+  <si>
+    <t>Lec 9 (System)</t>
+  </si>
+  <si>
+    <t>Field test</t>
+  </si>
+  <si>
+    <t>Lab 2-1-F (Amp)</t>
+  </si>
+  <si>
+    <t>Lab 2-1-M (Amp)</t>
+  </si>
+  <si>
+    <t>Lab 2-2-F (Amp)</t>
+  </si>
+  <si>
+    <t>Lab 2-2-M (Amp)</t>
+  </si>
+  <si>
+    <t>Lec 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab Report Due </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab 1 Report </t>
+  </si>
+  <si>
+    <t>Lab 2 Report</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>Lab 3 Report</t>
+  </si>
+  <si>
+    <t>Lab 4 Report</t>
+  </si>
+  <si>
+    <t>Lab 5 Report</t>
+  </si>
+  <si>
+    <t>Lab 6 Report</t>
+  </si>
+  <si>
+    <t>Quarter 2 Proposal</t>
+  </si>
+  <si>
+    <t>review files and give initial feedback over the weekend</t>
+  </si>
+  <si>
+    <t>submit overall by Wednesday</t>
+  </si>
+  <si>
+    <t>receive pcb 2</t>
+  </si>
+  <si>
+    <t>receive pcb 3</t>
+  </si>
+  <si>
+    <t>PCB 3 Design Files and Design Report</t>
+  </si>
+  <si>
+    <t>PCB 2 Design Files and Design Report</t>
+  </si>
+  <si>
+    <t>PCB 1 Design Files and Design Report</t>
+  </si>
+  <si>
+    <t>PCB 1 test report</t>
+  </si>
+  <si>
+    <t>PCB 2 test report</t>
+  </si>
+  <si>
+    <t>PCB 3 test report</t>
+  </si>
+  <si>
+    <t>submit overall by next Wednesday</t>
   </si>
 </sst>
 </file>
@@ -74,12 +203,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -94,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -106,12 +241,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFEAEAEA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -386,11 +531,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,53 +543,333 @@
     <col min="1" max="1" width="20" style="3" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42269</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>42272</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>42275</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>42276</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>42279</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>42272</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>42282</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>42275</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>42283</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>42286</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>42289</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>42290</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>42293</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>42296</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>42297</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>42300</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>42303</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>42304</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>42307</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>42310</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>42311</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>42314</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>42317</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>42318</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>42321</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>42324</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>42325</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>42328</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>42331</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>42332</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>42335</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>42338</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>42342</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/support/schedule/eec134-schedule.xlsx
+++ b/support/schedule/eec134-schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Lec/Lab</t>
   </si>
@@ -180,6 +180,21 @@
   </si>
   <si>
     <t>submit overall by next Wednesday</t>
+  </si>
+  <si>
+    <t>Pre-lab problems</t>
+  </si>
+  <si>
+    <t>Pre-lab 1</t>
+  </si>
+  <si>
+    <t>Pre-lab 2</t>
+  </si>
+  <si>
+    <t>Pre-lab 3</t>
+  </si>
+  <si>
+    <t>Pre-lab 4</t>
   </si>
 </sst>
 </file>
@@ -531,23 +546,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="2" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -555,16 +571,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42269</v>
       </c>
@@ -572,15 +591,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>42272</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>42275</v>
       </c>
@@ -588,7 +610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>42276</v>
       </c>
@@ -596,15 +618,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42279</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42282</v>
       </c>
@@ -612,7 +637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>42283</v>
       </c>
@@ -620,15 +645,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>42286</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>42289</v>
       </c>
@@ -636,7 +664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>42290</v>
       </c>
@@ -644,7 +672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42293</v>
       </c>
@@ -652,10 +680,13 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42296</v>
       </c>
@@ -663,7 +694,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42297</v>
       </c>
@@ -671,32 +702,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>42300</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>42303</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>42304</v>
       </c>
@@ -704,35 +735,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>42307</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>34</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>42310</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42311</v>
       </c>
@@ -740,35 +771,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>42314</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>42317</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>42318</v>
       </c>
@@ -776,24 +807,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>42321</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>37</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>48</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>42324</v>
       </c>
@@ -801,7 +832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>42325</v>
       </c>
@@ -809,24 +840,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>42328</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>42331</v>
       </c>
@@ -834,7 +865,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>42332</v>
       </c>
@@ -842,18 +873,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>42335</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>42338</v>
       </c>
@@ -861,14 +892,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>42342</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>39</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>40</v>
       </c>
     </row>

--- a/support/schedule/eec134-schedule.xlsx
+++ b/support/schedule/eec134-schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scratch\Git\UCD-EEC134\support\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Scratch\Github\UCD-EEC134\support\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Lec/Lab</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Instructor/TA Actions</t>
   </si>
   <si>
-    <t>Lec 1 (Mechanism)</t>
-  </si>
-  <si>
     <t>Lab 1-1-F (Electronics)</t>
   </si>
   <si>
@@ -56,54 +53,30 @@
     <t>Lab 1-3-M (Electronics)</t>
   </si>
   <si>
-    <t>Lec 4 (Amp)</t>
-  </si>
-  <si>
-    <t>Lec 3 (Amp)</t>
-  </si>
-  <si>
-    <t>Lec 2 (Intro &amp; Basics)</t>
-  </si>
-  <si>
-    <t>Lec 5 (Osc)</t>
-  </si>
-  <si>
     <t>Lab 3-F (Osc)</t>
   </si>
   <si>
     <t>Lab 3-M (Osc)</t>
   </si>
   <si>
-    <t>Lec 6 (Mixer)</t>
-  </si>
-  <si>
     <t>Lab 4-M (Mixer)</t>
   </si>
   <si>
     <t>Lab 4-F (Mixer)</t>
   </si>
   <si>
-    <t>Lec 7 (Passives)</t>
-  </si>
-  <si>
     <t>Lab 5-F (Antenna)</t>
   </si>
   <si>
     <t>Lab 6-M (Antenna)</t>
   </si>
   <si>
-    <t>Lec 8 (Antenna)</t>
-  </si>
-  <si>
     <t>Lab 6-F (System)</t>
   </si>
   <si>
     <t>Lab 6-M (System)</t>
   </si>
   <si>
-    <t>Lec 9 (System)</t>
-  </si>
-  <si>
     <t>Field test</t>
   </si>
   <si>
@@ -119,9 +92,6 @@
     <t>Lab 2-2-M (Amp)</t>
   </si>
   <si>
-    <t>Lec 10</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lab Report Due </t>
   </si>
   <si>
@@ -131,9 +101,6 @@
     <t>Lab 2 Report</t>
   </si>
   <si>
-    <t>PCB</t>
-  </si>
-  <si>
     <t>Lab 3 Report</t>
   </si>
   <si>
@@ -149,18 +116,6 @@
     <t>Quarter 2 Proposal</t>
   </si>
   <si>
-    <t>review files and give initial feedback over the weekend</t>
-  </si>
-  <si>
-    <t>submit overall by Wednesday</t>
-  </si>
-  <si>
-    <t>receive pcb 2</t>
-  </si>
-  <si>
-    <t>receive pcb 3</t>
-  </si>
-  <si>
     <t>PCB 3 Design Files and Design Report</t>
   </si>
   <si>
@@ -179,15 +134,6 @@
     <t>PCB 3 test report</t>
   </si>
   <si>
-    <t>submit overall by next Wednesday</t>
-  </si>
-  <si>
-    <t>Pre-lab problems</t>
-  </si>
-  <si>
-    <t>Pre-lab 1</t>
-  </si>
-  <si>
     <t>Pre-lab 2</t>
   </si>
   <si>
@@ -195,13 +141,54 @@
   </si>
   <si>
     <t>Pre-lab 4</t>
+  </si>
+  <si>
+    <t>Pre-lab Report Due</t>
+  </si>
+  <si>
+    <t>PCB Report Due</t>
+  </si>
+  <si>
+    <t>Pre-lab 1.1</t>
+  </si>
+  <si>
+    <t>Pre-lab 1.2</t>
+  </si>
+  <si>
+    <t>Pre-lab 1.3</t>
+  </si>
+  <si>
+    <t>PCB 2 back</t>
+  </si>
+  <si>
+    <t>PCB 3 back</t>
+  </si>
+  <si>
+    <t>Pre-lab 5</t>
+  </si>
+  <si>
+    <t>Pre-lab 6</t>
+  </si>
+  <si>
+    <t>Review files and give initial feedback over the weekend</t>
+  </si>
+  <si>
+    <t>Submit  by Wednesday (Oct. 28)</t>
+  </si>
+  <si>
+    <t>Submit overall by Wednesday (Nov. 4)</t>
+  </si>
+  <si>
+    <t>Review files and give initial feedback over the weekend;
+Submit overall by next Wednesday (Nov. 11);
+PCB 1 back</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,14 +198,19 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,8 +223,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -240,26 +238,170 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,365 +688,466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="3" customWidth="1"/>
-    <col min="2" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="34" style="24" customWidth="1"/>
+    <col min="6" max="6" width="48.42578125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>42272</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>42275</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>42279</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>42282</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>42286</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>42289</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>42293</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>42296</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>42300</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F17" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>42303</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>42307</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>42310</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:6" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>42314</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>42317</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>42321</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>42324</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>42328</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>42331</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>42335</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>42269</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>42272</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>42275</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>42276</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>42279</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>42282</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>42283</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>42286</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>42289</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>42290</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>42293</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>42296</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>42338</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>42342</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>42297</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>42300</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="E35" s="22"/>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>42303</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>42304</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>42307</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>42310</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>42311</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>42314</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>42317</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>42318</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>42321</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>42324</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>42325</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>42328</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>42331</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>42332</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>42335</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>42338</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>42342</v>
-      </c>
-      <c r="D32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" t="s">
-        <v>40</v>
-      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F23:F25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="74" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;C&amp;"Book Antiqua,Bold"&amp;18EEC 134A Schedule
+Fall 2015&amp;"-,Regular"
+</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
--- a/support/schedule/eec134-schedule.xlsx
+++ b/support/schedule/eec134-schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Scratch\Github\UCD-EEC134\support\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scratch\Git\UCD-EEC134\support\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>Lec/Lab</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Lab 5-F (Antenna)</t>
   </si>
   <si>
-    <t>Lab 6-M (Antenna)</t>
-  </si>
-  <si>
     <t>Lab 6-F (System)</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
   </si>
   <si>
     <t>PCB 3 test report</t>
-  </si>
-  <si>
-    <t>Pre-lab 2</t>
   </si>
   <si>
     <t>Pre-lab 3</t>
@@ -182,6 +176,15 @@
     <t>Review files and give initial feedback over the weekend;
 Submit overall by next Wednesday (Nov. 11);
 PCB 1 back</t>
+  </si>
+  <si>
+    <t>Pre-lab 2.1</t>
+  </si>
+  <si>
+    <t>Pre-lab 2.2</t>
+  </si>
+  <si>
+    <t>Lab 5-M (Antenna)</t>
   </si>
 </sst>
 </file>
@@ -383,15 +386,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -401,6 +395,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,44 +698,44 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:F3"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="34" style="24" customWidth="1"/>
-    <col min="6" max="6" width="48.42578125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="34" style="21" customWidth="1"/>
+    <col min="6" max="6" width="48.42578125" style="21" customWidth="1"/>
     <col min="7" max="7" width="27.140625" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
+      <c r="A1" s="21"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
+      <c r="A2" s="21"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="25" t="s">
+      <c r="C3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>2</v>
       </c>
     </row>
@@ -752,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -786,7 +789,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -820,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -851,13 +854,13 @@
         <v>42293</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
@@ -867,7 +870,7 @@
         <v>42296</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -887,15 +890,17 @@
         <v>42300</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -903,13 +908,13 @@
         <v>42303</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -928,16 +933,16 @@
         <v>9</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -951,7 +956,7 @@
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -970,16 +975,16 @@
         <v>12</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -992,7 +997,7 @@
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
-      <c r="F24" s="20"/>
+      <c r="F24" s="24"/>
     </row>
     <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
@@ -1000,7 +1005,7 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="21"/>
+      <c r="F25" s="25"/>
     </row>
     <row r="26" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
@@ -1010,16 +1015,16 @@
         <v>13</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1027,7 +1032,7 @@
         <v>42324</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1047,19 +1052,19 @@
         <v>42328</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1067,7 +1072,7 @@
         <v>42331</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -1087,12 +1092,12 @@
         <v>42335</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" s="12"/>
     </row>
@@ -1101,7 +1106,7 @@
         <v>42338</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -1123,9 +1128,9 @@
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="E35" s="19"/>
       <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1133,7 +1138,7 @@
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="12"/>

--- a/support/schedule/eec134-schedule.xlsx
+++ b/support/schedule/eec134-schedule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Lec/Lab</t>
   </si>
@@ -35,60 +35,9 @@
     <t>Instructor/TA Actions</t>
   </si>
   <si>
-    <t>Lab 1-1-F (Electronics)</t>
-  </si>
-  <si>
-    <t>Lab 1-1-M (Electronics)</t>
-  </si>
-  <si>
-    <t>Lab 1-2-F (Electronics)</t>
-  </si>
-  <si>
-    <t>Lab 1-2-M (Electronics)</t>
-  </si>
-  <si>
-    <t>Lab 1-3-F (Electronics)</t>
-  </si>
-  <si>
-    <t>Lab 1-3-M (Electronics)</t>
-  </si>
-  <si>
-    <t>Lab 3-F (Osc)</t>
-  </si>
-  <si>
-    <t>Lab 3-M (Osc)</t>
-  </si>
-  <si>
-    <t>Lab 4-M (Mixer)</t>
-  </si>
-  <si>
-    <t>Lab 4-F (Mixer)</t>
-  </si>
-  <si>
-    <t>Lab 5-F (Antenna)</t>
-  </si>
-  <si>
-    <t>Lab 6-F (System)</t>
-  </si>
-  <si>
-    <t>Lab 6-M (System)</t>
-  </si>
-  <si>
     <t>Field test</t>
   </si>
   <si>
-    <t>Lab 2-1-F (Amp)</t>
-  </si>
-  <si>
-    <t>Lab 2-1-M (Amp)</t>
-  </si>
-  <si>
-    <t>Lab 2-2-F (Amp)</t>
-  </si>
-  <si>
-    <t>Lab 2-2-M (Amp)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lab Report Due </t>
   </si>
   <si>
@@ -170,27 +119,51 @@
     <t>Submit  by Wednesday (Oct. 28)</t>
   </si>
   <si>
-    <t>Submit overall by Wednesday (Nov. 4)</t>
+    <t>Pre-lab 2.1</t>
+  </si>
+  <si>
+    <t>Pre-lab 2.2</t>
+  </si>
+  <si>
+    <t>Lab 1-1 (Electronics)</t>
+  </si>
+  <si>
+    <t>Lab 1-2 (Electronics)</t>
+  </si>
+  <si>
+    <t>Lab 1-3 (Electronics)</t>
+  </si>
+  <si>
+    <t>Lab 2-1 (Amp)</t>
+  </si>
+  <si>
+    <t>Lab 2-2 (Amp)</t>
+  </si>
+  <si>
+    <t>Lab 3 (Osc)</t>
+  </si>
+  <si>
+    <t>Lab 5 (Antenna)</t>
+  </si>
+  <si>
+    <t>Lab 4 (Mixer)</t>
+  </si>
+  <si>
+    <t>Lab 6 (System)</t>
   </si>
   <si>
     <t>Review files and give initial feedback over the weekend;
-Submit overall by next Wednesday (Nov. 11);
+Submit overall by next Wednesday;
 PCB 1 back</t>
   </si>
   <si>
-    <t>Pre-lab 2.1</t>
-  </si>
-  <si>
-    <t>Pre-lab 2.2</t>
-  </si>
-  <si>
-    <t>Lab 5-M (Antenna)</t>
+    <t>Submit overall by Wednesday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -504,6 +477,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -539,6 +529,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -698,7 +705,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -727,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>38</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>2</v>
@@ -749,13 +756,11 @@
     </row>
     <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>42272</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
+        <v>42642</v>
+      </c>
+      <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -763,10 +768,10 @@
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>42275</v>
+        <v>42643</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -783,13 +788,11 @@
     </row>
     <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
-        <v>42279</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>5</v>
-      </c>
+        <v>42649</v>
+      </c>
+      <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -797,10 +800,10 @@
     </row>
     <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>42282</v>
+        <v>42650</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -817,13 +820,11 @@
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>42286</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>7</v>
-      </c>
+        <v>42656</v>
+      </c>
+      <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -831,10 +832,10 @@
     </row>
     <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>42289</v>
+        <v>42657</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -851,26 +852,24 @@
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>42293</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>17</v>
-      </c>
+        <v>42663</v>
+      </c>
+      <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>42296</v>
+        <v>42298</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -887,34 +886,32 @@
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
-        <v>42300</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>19</v>
-      </c>
+        <v>42670</v>
+      </c>
+      <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>42303</v>
+        <v>42305</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -927,36 +924,34 @@
     </row>
     <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>42307</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>9</v>
-      </c>
+        <v>42677</v>
+      </c>
+      <c r="B20" s="11"/>
       <c r="C20" s="11" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>42310</v>
+        <v>42678</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -969,30 +964,28 @@
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
-        <v>42314</v>
-      </c>
-      <c r="B23" s="11" t="s">
+        <v>42684</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="F23" s="23" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>42317</v>
+        <v>42685</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1009,30 +1002,28 @@
     </row>
     <row r="26" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>42321</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>13</v>
-      </c>
+        <v>42691</v>
+      </c>
+      <c r="B26" s="11"/>
       <c r="C26" s="11" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
-        <v>42324</v>
+        <v>42692</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1049,30 +1040,28 @@
     </row>
     <row r="29" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
-        <v>42328</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>14</v>
-      </c>
+        <v>42698</v>
+      </c>
+      <c r="B29" s="11"/>
       <c r="C29" s="11" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
-        <v>42331</v>
+        <v>42699</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -1089,24 +1078,24 @@
     </row>
     <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
-        <v>42335</v>
+        <v>42705</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F32" s="12"/>
     </row>
     <row r="33" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
-        <v>42338</v>
+        <v>42706</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -1123,12 +1112,12 @@
     </row>
     <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
-        <v>42342</v>
+        <v>42346</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="12"/>
@@ -1138,7 +1127,7 @@
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="12"/>
@@ -1148,7 +1137,7 @@
     <mergeCell ref="F23:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="74" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup scale="75" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;"Book Antiqua,Bold"&amp;18EEC 134A Schedule
 Fall 2015&amp;"-,Regular"

--- a/support/schedule/eec134-schedule.xlsx
+++ b/support/schedule/eec134-schedule.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scratch\Git\UCD-EEC134\support\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Scratch\Github\UCD-EEC134\support\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -116,9 +116,6 @@
     <t>Review files and give initial feedback over the weekend</t>
   </si>
   <si>
-    <t>Submit  by Wednesday (Oct. 28)</t>
-  </si>
-  <si>
     <t>Pre-lab 2.1</t>
   </si>
   <si>
@@ -157,13 +154,16 @@
 PCB 1 back</t>
   </si>
   <si>
-    <t>Submit overall by Wednesday</t>
+    <t>Submit overall by next Wednesday</t>
+  </si>
+  <si>
+    <t>Submit  by next Wednesday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -477,23 +477,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -529,23 +512,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -705,7 +671,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -771,7 +737,7 @@
         <v>42643</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -803,7 +769,7 @@
         <v>42650</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -835,7 +801,7 @@
         <v>42657</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -856,7 +822,7 @@
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>5</v>
@@ -869,7 +835,7 @@
         <v>42298</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -890,7 +856,7 @@
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
@@ -905,13 +871,13 @@
         <v>42305</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -945,13 +911,13 @@
         <v>42678</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -977,7 +943,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -985,7 +951,7 @@
         <v>42685</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1023,7 +989,7 @@
         <v>42692</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1061,7 +1027,7 @@
         <v>42699</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
